--- a/biology/Médecine/Les_Soldats_de_l'espérance/Les_Soldats_de_l'espérance.xlsx
+++ b/biology/Médecine/Les_Soldats_de_l'espérance/Les_Soldats_de_l'espérance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Soldats_de_l%27esp%C3%A9rance</t>
+          <t>Les_Soldats_de_l'espérance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Soldats de l'espérance (And the Band Played On) est un téléfilm américain réalisé par Roger Spottiswoode, adapté du livre de Randy Shilts par la chaîne HBO et diffusé pour la première fois en 1993. Il est également sorti au cinéma dans certains pays comme la France. De nombreux grands noms du cinéma participèrent à cette adaptation, parmi lesquels Phil Collins, Richard Gere, Anjelica Huston et Matthew Modine, ou encore Lily Tomlin et Alan Alda.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Soldats_de_l%27esp%C3%A9rance</t>
+          <t>Les_Soldats_de_l'espérance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1980, en Afrique centrale, une épidémie de nature inconnue décime le personnel et les malades d'un hôpital de brousse d'Ebola. Don Francis, un jeune virologue du CDC, l'organisme américain chargé d'analyser les causes et les conséquences des maladies, voit une femme décéder de cette maladie (la maladie à virus Ebola). Quelques mois plus tard, il découvrira une autre maladie tout aussi terrifiante, le sida.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Soldats_de_l%27esp%C3%A9rance</t>
+          <t>Les_Soldats_de_l'espérance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film remporta vingt nominations et neuf récompenses, comprenant un Emmy Award en 1994[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film remporta vingt nominations et neuf récompenses, comprenant un Emmy Award en 1994.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Soldats_de_l%27esp%C3%A9rance</t>
+          <t>Les_Soldats_de_l'espérance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : And the Band Played On
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Soldats_de_l%27esp%C3%A9rance</t>
+          <t>Les_Soldats_de_l'espérance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Matthew Modine (VQ : Daniel Picard) : Dr Donald Francis
@@ -714,7 +734,7 @@
 Michael Winters : Middle-aged Man
 William Wintersole : Dr Paul Florino
 Lenny Wolpe : Dr Joseph Bove
-Version québécoise (VQ) sur Doublage Québec[2]
+Version québécoise (VQ) sur Doublage Québec
 </t>
         </is>
       </c>
@@ -725,7 +745,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Les_Soldats_de_l%27esp%C3%A9rance</t>
+          <t>Les_Soldats_de_l'espérance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -743,9 +763,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tournage a lieu à San Francisco (Californie)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu à San Francisco (Californie).
 </t>
         </is>
       </c>
